--- a/data/GRNmap_input_workbooks/16-genes_36-edges_NW-wt-fam_no-strains-added_Sigmoid_estimation.xlsx
+++ b/data/GRNmap_input_workbooks/16-genes_36-edges_NW-wt-fam_no-strains-added_Sigmoid_estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="2160" windowWidth="25620" windowHeight="14140" tabRatio="500"/>
+    <workbookView xWindow="7780" yWindow="0" windowWidth="25120" windowHeight="15040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="4" r:id="rId1"/>
@@ -226,7 +226,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="106">
+  <cellStyleXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -333,19 +333,73 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="106">
+  <cellStyles count="160">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -447,8 +501,62 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5"/>
     <cellStyle name="Normal 3" xfId="105"/>
@@ -785,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -798,7 +906,7 @@
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -806,86 +914,142 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="1">
+        <v>-0.15759999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="1">
+        <v>-0.22359999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="8">
+        <v>-0.308</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="6">
+        <v>-0.15060000000000001</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="6">
+        <v>-0.43319999999999997</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="8">
+        <v>-0.20100000000000001</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="6">
+        <v>-0.1026</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="6">
+        <v>-0.32240000000000002</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="6">
+        <v>-0.27179999999999999</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="8">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="B12" s="6">
+        <v>-0.4078</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="6">
+        <v>-0.69320000000000004</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="3">
+        <v>-0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15" s="1">
+        <v>-0.17319999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="1">
+        <v>-0.72960000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-0.1042</v>
       </c>
     </row>
   </sheetData>
@@ -901,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -914,7 +1078,7 @@
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -922,117 +1086,161 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-7.8799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-0.1118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="8">
+        <v>-0.154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="6">
+        <v>-7.5300000000000006E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="6">
+        <v>-0.21659999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="6">
+        <v>-0.10050000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="6">
+        <v>-5.1299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="6">
+        <v>-0.16120000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="6" t="s">
+      <c r="B10" s="6">
+        <v>-0.13589999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="6">
+        <v>-4.9500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="6">
+        <v>-0.2039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="6">
+        <v>-0.34660000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="1">
+        <v>-0.14149999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="6">
+        <v>-8.6599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="6">
+        <v>-0.36480000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="6">
+        <v>-5.21E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1106,43 +1314,43 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>-2.1071</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>-0.89259999999999995</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>-2.1899999999999999E-2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>-1.7297</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>-1.2332000000000001</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>-0.43809999999999999</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>-1.9801</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>-0.87129999999999996</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="3">
         <v>-1.3866000000000001</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3">
         <v>-2.4279999999999999</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="3">
         <v>-0.65590000000000004</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="3">
         <v>-3.0996999999999999</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="3">
         <v>-1.4733000000000001</v>
       </c>
     </row>
@@ -1150,43 +1358,43 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>0.6139</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>-1.0689</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>0.19059999999999999</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>-0.39800000000000002</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>0.5827</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="4">
         <v>0.14330000000000001</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>-0.3947</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>-0.62639999999999996</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <v>0.3377</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <v>0.81699999999999995</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="3">
         <v>0.55659999999999998</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="3">
         <v>-0.43569999999999998</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="3">
         <v>-1.2497</v>
       </c>
     </row>
@@ -1194,43 +1402,43 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>-0.64400000000000002</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>1.6657999999999999</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>-0.70330000000000004</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>0.1053</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>0.45</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>0.22489999999999999</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>1.3611</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>-0.46939999999999998</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <v>-0.44219999999999998</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <v>0.79820000000000002</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="3">
         <v>-0.13619999999999999</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="3">
         <v>1.0173000000000001</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="3">
         <v>-0.46479999999999999</v>
       </c>
     </row>
@@ -1238,43 +1446,43 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>-1.9464999999999999</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>-0.13730000000000001</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>-0.2276</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>0.73680000000000001</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>-1.5017</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>-1.9844999999999999</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>-1.3883000000000001</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>0.16520000000000001</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <v>-0.72529999999999994</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>-1.7791999999999999</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="3">
         <v>-1.901</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="3">
         <v>-0.67159999999999997</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="3">
         <v>-1.595</v>
       </c>
     </row>
@@ -1282,43 +1490,43 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>0.97</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>0.30430000000000001</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>-0.99039999999999995</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>-0.2636</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>-0.38200000000000001</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>0.42059999999999997</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>-0.49109999999999998</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>-0.12839999999999999</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <v>-0.72360000000000002</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <v>-1.3476999999999999</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="3">
         <v>-1.0468</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="3">
         <v>-1.0978000000000001</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="3">
         <v>-0.92479999999999996</v>
       </c>
     </row>
@@ -1326,43 +1534,43 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>-0.13730000000000001</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>-9.9699999999999997E-2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>1.2385999999999999</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>1.3909</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>-0.4224</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>0.54610000000000003</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>1.0285</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>1.2338</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <v>2.2159</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="3">
         <v>2.1796000000000002</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="3">
         <v>0.84470000000000001</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="3">
         <v>2.4687000000000001</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="3">
         <v>1.4784999999999999</v>
       </c>
     </row>
@@ -1370,43 +1578,43 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>1.1491</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>0.1163</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>1.3471</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>-1.4533</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>-8.2100000000000006E-2</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>1.083</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>0.62070000000000003</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>-0.13400000000000001</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <v>-0.56620000000000004</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="3">
         <v>0.248</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="3">
         <v>0.14849999999999999</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="3">
         <v>0.5675</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="3">
         <v>5.5500000000000001E-2</v>
       </c>
     </row>
@@ -1414,43 +1622,43 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>-1.3141</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>0.39389999999999997</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>0.1439</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>-0.51329999999999998</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>-0.70040000000000002</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>-0.2467</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>1.4085000000000001</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>0.97330000000000005</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <v>0.65039999999999998</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <v>0.20250000000000001</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="3">
         <v>0.89239999999999997</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="3">
         <v>0.90069999999999995</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="3">
         <v>0.1953</v>
       </c>
     </row>
@@ -1458,43 +1666,43 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>0.51380000000000003</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>1.9214</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>-0.88590000000000002</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>-2.6541999999999999</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>0.13800000000000001</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>1.5184</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>0.27939999999999998</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>-2.5135000000000001</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="3">
         <v>-1.1181000000000001</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="3">
         <v>0.2225</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="3">
         <v>-1.0353000000000001</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="3">
         <v>-0.2074</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="3">
         <v>-1.8463000000000001</v>
       </c>
     </row>
@@ -1502,43 +1710,43 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>0.30580000000000002</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>0.2392</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>1.8398000000000001</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>1.2493000000000001</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>-0.95250000000000001</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>1.405</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>1.3109</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>1.2568999999999999</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="3">
         <v>1.9007000000000001</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="3">
         <v>1.4816</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="3">
         <v>0.93799999999999994</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="3">
         <v>1.8391</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="3">
         <v>2.2172000000000001</v>
       </c>
     </row>
@@ -1546,43 +1754,43 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>-1.0625</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>0.92459999999999998</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>0.1666</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>-0.26960000000000001</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>0.35849999999999999</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>0.95140000000000002</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>0.12330000000000001</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>1.2802</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="3">
         <v>-0.68079999999999996</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="3">
         <v>0.76339999999999997</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="3">
         <v>1.3451</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="3">
         <v>0.83550000000000002</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="3">
         <v>-0.12709999999999999</v>
       </c>
     </row>
@@ -1590,43 +1798,43 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>2.1524999999999999</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>1.2788999999999999</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>-0.4526</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>0.69169999999999998</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>0.53420000000000001</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>2.2597999999999998</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="3">
         <v>-0.92320000000000002</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="3">
         <v>0.82930000000000004</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="3">
         <v>1.3828</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="3">
         <v>0.90039999999999998</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="3">
         <v>0.88880000000000003</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="3">
         <v>-1.0367</v>
       </c>
     </row>
@@ -1634,43 +1842,43 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>-0.92859999999999998</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>-2.3E-2</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>-0.36509999999999998</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>-0.32779999999999998</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>-0.4798</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>0.20469999999999999</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>0.32219999999999999</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <v>-0.23769999999999999</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="3">
         <v>-0.63690000000000002</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="3">
         <v>-1.4226000000000001</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="3">
         <v>-0.52939999999999998</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="3">
         <v>0.29959999999999998</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="3">
         <v>0.28120000000000001</v>
       </c>
     </row>
@@ -1678,43 +1886,43 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>-1.1269</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>-0.21</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>-0.66759999999999997</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>-1.6963999999999999</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>-0.34960000000000002</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>1.2371000000000001</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <v>0.94320000000000004</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="3">
         <v>-0.36209999999999998</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="3">
         <v>-1.8086</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="3">
         <v>0.66169999999999995</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="3">
         <v>0.61919999999999997</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="3">
         <v>0.20499999999999999</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="3">
         <v>-0.72499999999999998</v>
       </c>
     </row>
@@ -1722,43 +1930,43 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>-0.20250000000000001</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>-1.0587</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>-0.64019999999999999</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>-2.2532000000000001</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <v>-8.3000000000000004E-2</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>-1.6116999999999999</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="3">
         <v>-0.104</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="3">
         <v>-0.1487</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="3">
         <v>-0.93940000000000001</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="3">
         <v>-0.59009999999999996</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="3">
         <v>0.13289999999999999</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="3">
         <v>-0.72219999999999995</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="3">
         <v>-0.51170000000000004</v>
       </c>
     </row>
@@ -1766,43 +1974,43 @@
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>0.65939999999999999</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>0.61350000000000005</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>0.32379999999999998</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>-0.37119999999999997</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <v>1.4712000000000001</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <v>1.9049</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="3">
         <v>0.59899999999999998</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="3">
         <v>-0.2354</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="3">
         <v>-0.39400000000000002</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="3">
         <v>2.9605999999999999</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="3">
         <v>3.5569000000000002</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="3">
         <v>1.3863000000000001</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="4">
         <v>2.6346000000000003</v>
       </c>
     </row>
@@ -3706,7 +3914,7 @@
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>100000000</v>
       </c>
     </row>
@@ -3714,7 +3922,7 @@
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -3722,7 +3930,7 @@
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>100000000</v>
       </c>
     </row>
@@ -3730,7 +3938,7 @@
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -3881,7 +4089,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
@@ -3889,7 +4097,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -3897,7 +4105,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -3905,7 +4113,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -3913,7 +4121,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -3921,7 +4129,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -3929,7 +4137,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
@@ -3937,7 +4145,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1">
@@ -3945,7 +4153,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1">
@@ -3953,7 +4161,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
@@ -3961,7 +4169,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1">
@@ -3969,7 +4177,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1">
@@ -3977,7 +4185,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1">
@@ -3985,7 +4193,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1">
@@ -3993,7 +4201,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1">
@@ -4001,7 +4209,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1">
